--- a/Desktop/premit cpd/CPD 2024/MYCPD 2024.xlsx
+++ b/Desktop/premit cpd/CPD 2024/MYCPD 2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\cpd2024-permit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\premit cpd\CPD 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -262,7 +262,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +278,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,17 +352,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,9 +376,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -391,6 +385,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,13 +419,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,975 +750,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="17" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="7" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="36.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7" style="13" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="1"/>
+    <col min="13" max="16" width="9.140625" style="7"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="18">
         <v>45324</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="18">
         <v>45324</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="19">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="8" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="18">
         <v>45329</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="18">
         <v>45329</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="19">
         <v>9</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="19">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="I4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="18">
         <v>45331</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="18">
         <v>45331</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="19">
         <v>12.25</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="19">
         <v>12.55</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="18">
         <v>45351</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="18">
         <v>45351</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="19">
         <v>4</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="I6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="17">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="18">
         <v>45317</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="18">
         <v>45317</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="19">
         <v>9</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="19">
         <v>10</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>45308</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>45308</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>3.3</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="7">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="I8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="18">
         <v>45309</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="18">
         <v>45309</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="19">
         <v>3.3</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="19">
         <v>4</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="I9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:16" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="18">
         <v>45310</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="18">
         <v>45310</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="19">
         <v>3.3</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="19">
         <v>4.3</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="I10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="18">
         <v>45336</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="18">
         <v>45336</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="19">
         <v>4</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="18">
         <v>45309</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="18">
         <v>45309</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="19">
         <v>3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="19">
         <v>3.3</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:16" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="18">
         <v>45310</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="18">
         <v>45310</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="19">
         <v>3</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="19">
         <v>4</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="18">
         <v>45331</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="18">
         <v>45331</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="19">
         <v>3</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="19">
         <v>4</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="I14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="18">
         <v>45344</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="18">
         <v>45344</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="19">
         <v>3.3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="19">
         <v>4</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="I15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="18">
         <v>45359</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="18">
         <v>45359</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="19">
         <v>3.3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="19">
         <v>4</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="I16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" s="8" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="18">
         <v>45338</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="18">
         <v>45338</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="19">
         <v>4</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="19"/>
+      <c r="H17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="I17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" s="8" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="18">
         <v>45352</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="18">
         <v>45352</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="19">
         <v>3.3</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="19">
         <v>4</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="I18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" s="8" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="21">
         <v>45358</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="21">
         <v>45358</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="19">
         <v>10.3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="19">
         <v>11.3</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="I19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" s="8" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="21">
         <v>45359</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="21">
         <v>45359</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="19">
         <v>3</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="19">
         <v>3.3</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="I20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="29">
         <v>45364</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="29">
         <v>45364</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="I21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="28">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" s="8" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="29">
         <v>45322</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="29">
         <v>45323</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="28">
         <v>9</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="28">
         <v>4.3</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="28">
         <v>10</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="29">
         <v>45377</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="29">
         <v>45378</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="30">
         <v>9</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="30">
         <v>5</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="7" t="s">
+      <c r="G23" s="30"/>
+      <c r="H23" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="28">
         <v>10</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="29">
         <v>45328</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="29">
         <v>45328</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="30">
         <v>6</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="30">
         <v>10</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="28">
         <v>5</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="29">
         <v>45364</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="29">
         <v>45364</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="30">
         <v>3.3</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="30">
         <v>4</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="I25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="28">
+        <v>1</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="29">
         <v>45366</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="29">
         <v>45366</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="30">
         <v>3.3</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="30">
         <v>4</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="I26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="28">
+        <v>1</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" s="8" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="29">
         <v>45358</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="29">
         <v>45358</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="30">
         <v>3</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="30">
         <v>4</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="I27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="28">
+        <v>1</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" s="8" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="29">
         <v>45414</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="29">
         <v>45414</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="30">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="30">
         <v>10.3</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="7" t="s">
+      <c r="G28" s="30"/>
+      <c r="H28" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G29" s="18" t="s">
+      <c r="I28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21">
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="14">
         <f>SUM(J3:J28)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="21" t="s">
+    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="23" t="e">
+      <c r="C32" s="16" t="e">
         <f>SUM(#REF!,J23)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="23" t="e">
+      <c r="B33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="16" t="e">
         <f>SUM(J4,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,J18,J19,J20,J21,#REF!,#REF!,#REF!,J28)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="23" t="e">
+      <c r="C34" s="16" t="e">
         <f>SUM(J5,J10,J14,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="23" t="e">
+      <c r="C35" s="16" t="e">
         <f>SUM(J3,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="23" t="e">
+      <c r="C37" s="16" t="e">
         <f>SUM(C32:C36)</f>
         <v>#REF!</v>
       </c>
